--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63852.19020401742</v>
+        <v>12598045.2292921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63852.19020401742</v>
+        <v>12598045.2292921</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145858.7012140046</v>
+        <v>16658262.46410609</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145858.7012140046</v>
+        <v>16658262.46410609</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1607626577.497373</v>
+        <v>45882683.99333897</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17053.92393928394</v>
+        <v>1057917.304735692</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33559.57451693019</v>
+        <v>1946091.553668702</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49613.81146293451</v>
+        <v>2834265.80260171</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64917.2514553041</v>
+        <v>3722086.007202128</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80220.69144767373</v>
+        <v>4609906.21180255</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95524.13144004335</v>
+        <v>5497726.41640297</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>110303.7146839575</v>
+        <v>6679933.939279838</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>124844.138331912</v>
+        <v>7814548.702560743</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140504.6627917721</v>
+        <v>8589982.749325218</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>155787.161505321</v>
+        <v>9483757.547799177</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>171069.6602188699</v>
+        <v>10377532.34627314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>186352.1589324188</v>
+        <v>11271307.1447471</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>201634.6576459676</v>
+        <v>12165081.94322106</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>220025.4763490801</v>
+        <v>12700201.43460681</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238582.0289560938</v>
+        <v>12937228.99671056</v>
       </c>
     </row>
   </sheetData>
